--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_18_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_18_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80415.33065292894</v>
+        <v>15243411.81384641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80415.33065292894</v>
+        <v>15243411.81384641</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63219.11362400326</v>
+        <v>8016355.594129065</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63219.11362400326</v>
+        <v>8016355.594129065</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609150262.950392</v>
+        <v>57504903.08274496</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12644.46670095635</v>
+        <v>1269730.127553275</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24720.54977883233</v>
+        <v>2462703.298499845</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36756.72012943558</v>
+        <v>3649589.778537325</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50898.7163672187</v>
+        <v>4644781.035311369</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63419.40534274473</v>
+        <v>5815959.15077417</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75929.10538100498</v>
+        <v>6988694.373587139</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88872.20764305005</v>
+        <v>8253706.302347027</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101613.0712832099</v>
+        <v>9487868.660823448</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115823.7741269348</v>
+        <v>10477284.03570434</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128013.9138154807</v>
+        <v>11737454.36291536</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140251.5257235213</v>
+        <v>13002610.62430439</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152217.9507093338</v>
+        <v>14212754.66541031</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164306.9647860547</v>
+        <v>15441593.54287995</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>178564.9226882665</v>
+        <v>16380974.2382098</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198300.2139952796</v>
+        <v>16556978.79746129</v>
       </c>
     </row>
   </sheetData>
